--- a/1_Result_Tables/4_ifoCAST_evaluations_full_since_2021/ifoCAst_error_tables_full_first_since_2021.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_full_since_2021/ifoCAst_error_tables_full_first_since_2021.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.22903031140191</v>
+        <v>0.2276211974233028</v>
       </c>
       <c r="C3">
-        <v>0.782235448781033</v>
+        <v>0.7533946750976762</v>
       </c>
       <c r="D3">
-        <v>1.183256247942007</v>
+        <v>1.127004305186878</v>
       </c>
       <c r="E3">
-        <v>1.087775826143423</v>
+        <v>1.061604589848253</v>
       </c>
       <c r="F3">
-        <v>1.068045258692344</v>
+        <v>1.041226601882469</v>
       </c>
       <c r="G3">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.059798202013339</v>
+        <v>0.1031743366226042</v>
       </c>
       <c r="C4">
-        <v>0.5177676784374124</v>
+        <v>0.5300950349840287</v>
       </c>
       <c r="D4">
-        <v>0.3570626139788766</v>
+        <v>0.3665963335635029</v>
       </c>
       <c r="E4">
-        <v>0.5975471646480105</v>
+        <v>0.6054719923856948</v>
       </c>
       <c r="F4">
-        <v>0.6000273665952841</v>
+        <v>0.6017378854235643</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
